--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Mdk-Ptprz1.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Mdk-Ptprz1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,6 +80,12 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>Neutro</t>
@@ -449,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,247 +528,1115 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.64115168223275</v>
+        <v>1.237638666666667</v>
       </c>
       <c r="H2">
-        <v>0.64115168223275</v>
+        <v>3.712916</v>
       </c>
       <c r="I2">
-        <v>0.03230056020388278</v>
+        <v>0.03888686536925432</v>
       </c>
       <c r="J2">
-        <v>0.03230056020388278</v>
+        <v>0.03888686536925433</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>4.30546451893599</v>
+        <v>0.01848533333333334</v>
       </c>
       <c r="N2">
-        <v>4.30546451893599</v>
+        <v>0.05545600000000001</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.002735469863414935</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.002735469863414935</v>
       </c>
       <c r="Q2">
-        <v>2.760455819109227</v>
+        <v>0.02287816329955556</v>
       </c>
       <c r="R2">
-        <v>2.760455819109227</v>
+        <v>0.205903469696</v>
       </c>
       <c r="S2">
-        <v>0.03230056020388278</v>
+        <v>0.0001063738483002691</v>
       </c>
       <c r="T2">
-        <v>0.03230056020388278</v>
+        <v>0.0001063738483002691</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="B3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" t="s">
-        <v>23</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.59302564509964</v>
+        <v>1.237638666666667</v>
       </c>
       <c r="H3">
-        <v>3.59302564509964</v>
+        <v>3.712916</v>
       </c>
       <c r="I3">
-        <v>0.1810129246787267</v>
+        <v>0.03888686536925432</v>
       </c>
       <c r="J3">
-        <v>0.1810129246787267</v>
+        <v>0.03888686536925433</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>4.30546451893599</v>
+        <v>0.008616666666666667</v>
       </c>
       <c r="N3">
-        <v>4.30546451893599</v>
+        <v>0.02585</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.001275099105043207</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.001275099105043207</v>
       </c>
       <c r="Q3">
-        <v>15.4696444306036</v>
+        <v>0.01066431984444444</v>
       </c>
       <c r="R3">
-        <v>15.4696444306036</v>
+        <v>0.0959788786</v>
       </c>
       <c r="S3">
-        <v>0.1810129246787267</v>
+        <v>4.958460723027185E-05</v>
       </c>
       <c r="T3">
-        <v>0.1810129246787267</v>
+        <v>4.958460723027187E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
         <v>25</v>
       </c>
-      <c r="D4" t="s">
-        <v>23</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.58295704856817</v>
+        <v>1.237638666666667</v>
       </c>
       <c r="H4">
-        <v>4.58295704856817</v>
+        <v>3.712916</v>
       </c>
       <c r="I4">
-        <v>0.2308846473639084</v>
+        <v>0.03888686536925432</v>
       </c>
       <c r="J4">
-        <v>0.2308846473639084</v>
+        <v>0.03888686536925433</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.30546451893599</v>
+        <v>6.730542666666667</v>
       </c>
       <c r="N4">
-        <v>4.30546451893599</v>
+        <v>20.191628</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.9959894310315418</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.9959894310315418</v>
       </c>
       <c r="Q4">
-        <v>19.73175896441786</v>
+        <v>8.329979851916445</v>
       </c>
       <c r="R4">
-        <v>19.73175896441786</v>
+        <v>74.96981866724801</v>
       </c>
       <c r="S4">
-        <v>0.2308846473639084</v>
+        <v>0.03873090691372378</v>
       </c>
       <c r="T4">
-        <v>0.2308846473639084</v>
+        <v>0.03873090691372379</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>3.644449</v>
+      </c>
+      <c r="H5">
+        <v>10.933347</v>
+      </c>
+      <c r="I5">
+        <v>0.1145093486694395</v>
+      </c>
+      <c r="J5">
+        <v>0.1145093486694395</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M5">
+        <v>0.01848533333333334</v>
+      </c>
+      <c r="N5">
+        <v>0.05545600000000001</v>
+      </c>
+      <c r="O5">
+        <v>0.002735469863414935</v>
+      </c>
+      <c r="P5">
+        <v>0.002735469863414935</v>
+      </c>
+      <c r="Q5">
+        <v>0.06736885458133335</v>
+      </c>
+      <c r="R5">
+        <v>0.6063196912320001</v>
+      </c>
+      <c r="S5">
+        <v>0.000313236872364525</v>
+      </c>
+      <c r="T5">
+        <v>0.000313236872364525</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>3.644449</v>
+      </c>
+      <c r="H6">
+        <v>10.933347</v>
+      </c>
+      <c r="I6">
+        <v>0.1145093486694395</v>
+      </c>
+      <c r="J6">
+        <v>0.1145093486694395</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M6">
+        <v>0.008616666666666667</v>
+      </c>
+      <c r="N6">
+        <v>0.02585</v>
+      </c>
+      <c r="O6">
+        <v>0.001275099105043207</v>
+      </c>
+      <c r="P6">
+        <v>0.001275099105043207</v>
+      </c>
+      <c r="Q6">
+        <v>0.03140300221666667</v>
+      </c>
+      <c r="R6">
+        <v>0.2826270199500001</v>
+      </c>
+      <c r="S6">
+        <v>0.0001460107680074829</v>
+      </c>
+      <c r="T6">
+        <v>0.0001460107680074829</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>3.644449</v>
+      </c>
+      <c r="H7">
+        <v>10.933347</v>
+      </c>
+      <c r="I7">
+        <v>0.1145093486694395</v>
+      </c>
+      <c r="J7">
+        <v>0.1145093486694395</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>6.730542666666667</v>
+      </c>
+      <c r="N7">
+        <v>20.191628</v>
+      </c>
+      <c r="O7">
+        <v>0.9959894310315418</v>
+      </c>
+      <c r="P7">
+        <v>0.9959894310315418</v>
+      </c>
+      <c r="Q7">
+        <v>24.52911949099067</v>
+      </c>
+      <c r="R7">
+        <v>220.7620754189161</v>
+      </c>
+      <c r="S7">
+        <v>0.1140501010290675</v>
+      </c>
+      <c r="T7">
+        <v>0.1140501010290675</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>1.671495666666667</v>
+      </c>
+      <c r="H8">
+        <v>5.014487</v>
+      </c>
+      <c r="I8">
+        <v>0.05251874291389195</v>
+      </c>
+      <c r="J8">
+        <v>0.05251874291389194</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.01848533333333334</v>
+      </c>
+      <c r="N8">
+        <v>0.05545600000000001</v>
+      </c>
+      <c r="O8">
+        <v>0.002735469863414935</v>
+      </c>
+      <c r="P8">
+        <v>0.002735469863414935</v>
+      </c>
+      <c r="Q8">
+        <v>0.03089815456355556</v>
+      </c>
+      <c r="R8">
+        <v>0.278083391072</v>
+      </c>
+      <c r="S8">
+        <v>0.0001436634385053881</v>
+      </c>
+      <c r="T8">
+        <v>0.0001436634385053881</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>1.671495666666667</v>
+      </c>
+      <c r="H9">
+        <v>5.014487</v>
+      </c>
+      <c r="I9">
+        <v>0.05251874291389195</v>
+      </c>
+      <c r="J9">
+        <v>0.05251874291389194</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.008616666666666667</v>
+      </c>
+      <c r="N9">
+        <v>0.02585</v>
+      </c>
+      <c r="O9">
+        <v>0.001275099105043207</v>
+      </c>
+      <c r="P9">
+        <v>0.001275099105043207</v>
+      </c>
+      <c r="Q9">
+        <v>0.01440272099444444</v>
+      </c>
+      <c r="R9">
+        <v>0.12962448895</v>
+      </c>
+      <c r="S9">
+        <v>6.696660208749787E-05</v>
+      </c>
+      <c r="T9">
+        <v>6.696660208749787E-05</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>1.671495666666667</v>
+      </c>
+      <c r="H10">
+        <v>5.014487</v>
+      </c>
+      <c r="I10">
+        <v>0.05251874291389195</v>
+      </c>
+      <c r="J10">
+        <v>0.05251874291389194</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>6.730542666666667</v>
+      </c>
+      <c r="N10">
+        <v>20.191628</v>
+      </c>
+      <c r="O10">
+        <v>0.9959894310315418</v>
+      </c>
+      <c r="P10">
+        <v>0.9959894310315418</v>
+      </c>
+      <c r="Q10">
+        <v>11.25007290164845</v>
+      </c>
+      <c r="R10">
+        <v>101.250656114836</v>
+      </c>
+      <c r="S10">
+        <v>0.05230811287329906</v>
+      </c>
+      <c r="T10">
+        <v>0.05230811287329905</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
         <v>23</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>2.306614666666666</v>
+      </c>
+      <c r="H11">
+        <v>6.919843999999999</v>
+      </c>
+      <c r="I11">
+        <v>0.07247431452913082</v>
+      </c>
+      <c r="J11">
+        <v>0.07247431452913082</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>0.01848533333333334</v>
+      </c>
+      <c r="N11">
+        <v>0.05545600000000001</v>
+      </c>
+      <c r="O11">
+        <v>0.002735469863414935</v>
+      </c>
+      <c r="P11">
+        <v>0.002735469863414935</v>
+      </c>
+      <c r="Q11">
+        <v>0.0426385409848889</v>
+      </c>
+      <c r="R11">
+        <v>0.383746868864</v>
+      </c>
+      <c r="S11">
+        <v>0.0001982513032660926</v>
+      </c>
+      <c r="T11">
+        <v>0.0001982513032660926</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>2.306614666666666</v>
+      </c>
+      <c r="H12">
+        <v>6.919843999999999</v>
+      </c>
+      <c r="I12">
+        <v>0.07247431452913082</v>
+      </c>
+      <c r="J12">
+        <v>0.07247431452913082</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.008616666666666667</v>
+      </c>
+      <c r="N12">
+        <v>0.02585</v>
+      </c>
+      <c r="O12">
+        <v>0.001275099105043207</v>
+      </c>
+      <c r="P12">
+        <v>0.001275099105043207</v>
+      </c>
+      <c r="Q12">
+        <v>0.01987532971111111</v>
+      </c>
+      <c r="R12">
+        <v>0.1788779674</v>
+      </c>
+      <c r="S12">
+        <v>9.241193359471458E-05</v>
+      </c>
+      <c r="T12">
+        <v>9.241193359471459E-05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>2.306614666666666</v>
+      </c>
+      <c r="H13">
+        <v>6.919843999999999</v>
+      </c>
+      <c r="I13">
+        <v>0.07247431452913082</v>
+      </c>
+      <c r="J13">
+        <v>0.07247431452913082</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>6.730542666666667</v>
+      </c>
+      <c r="N13">
+        <v>20.191628</v>
+      </c>
+      <c r="O13">
+        <v>0.9959894310315418</v>
+      </c>
+      <c r="P13">
+        <v>0.9959894310315418</v>
+      </c>
+      <c r="Q13">
+        <v>15.52476842955911</v>
+      </c>
+      <c r="R13">
+        <v>139.722915866032</v>
+      </c>
+      <c r="S13">
+        <v>0.07218365129227002</v>
+      </c>
+      <c r="T13">
+        <v>0.07218365129227002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>4.637834666666667</v>
+      </c>
+      <c r="H14">
+        <v>13.913504</v>
+      </c>
+      <c r="I14">
+        <v>0.1457217337700561</v>
+      </c>
+      <c r="J14">
+        <v>0.1457217337700561</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.01848533333333334</v>
+      </c>
+      <c r="N14">
+        <v>0.05545600000000001</v>
+      </c>
+      <c r="O14">
+        <v>0.002735469863414935</v>
+      </c>
+      <c r="P14">
+        <v>0.002735469863414935</v>
+      </c>
+      <c r="Q14">
+        <v>0.08573191975822224</v>
+      </c>
+      <c r="R14">
+        <v>0.7715872778240001</v>
+      </c>
+      <c r="S14">
+        <v>0.0003986174111725628</v>
+      </c>
+      <c r="T14">
+        <v>0.0003986174111725628</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>4.637834666666667</v>
+      </c>
+      <c r="H15">
+        <v>13.913504</v>
+      </c>
+      <c r="I15">
+        <v>0.1457217337700561</v>
+      </c>
+      <c r="J15">
+        <v>0.1457217337700561</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.008616666666666667</v>
+      </c>
+      <c r="N15">
+        <v>0.02585</v>
+      </c>
+      <c r="O15">
+        <v>0.001275099105043207</v>
+      </c>
+      <c r="P15">
+        <v>0.001275099105043207</v>
+      </c>
+      <c r="Q15">
+        <v>0.03996267537777778</v>
+      </c>
+      <c r="R15">
+        <v>0.3596640784</v>
+      </c>
+      <c r="S15">
+        <v>0.0001858096523155429</v>
+      </c>
+      <c r="T15">
+        <v>0.0001858096523155429</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
         <v>25</v>
       </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>11.0324186406963</v>
-      </c>
-      <c r="H5">
-        <v>11.0324186406963</v>
-      </c>
-      <c r="I5">
-        <v>0.5558018677534822</v>
-      </c>
-      <c r="J5">
-        <v>0.5558018677534822</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>4.30546451893599</v>
-      </c>
-      <c r="N5">
-        <v>4.30546451893599</v>
-      </c>
-      <c r="O5">
-        <v>1</v>
-      </c>
-      <c r="P5">
-        <v>1</v>
-      </c>
-      <c r="Q5">
-        <v>47.49968701556594</v>
-      </c>
-      <c r="R5">
-        <v>47.49968701556594</v>
-      </c>
-      <c r="S5">
-        <v>0.5558018677534822</v>
-      </c>
-      <c r="T5">
-        <v>0.5558018677534822</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>4.637834666666667</v>
+      </c>
+      <c r="H16">
+        <v>13.913504</v>
+      </c>
+      <c r="I16">
+        <v>0.1457217337700561</v>
+      </c>
+      <c r="J16">
+        <v>0.1457217337700561</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>6.730542666666667</v>
+      </c>
+      <c r="N16">
+        <v>20.191628</v>
+      </c>
+      <c r="O16">
+        <v>0.9959894310315418</v>
+      </c>
+      <c r="P16">
+        <v>0.9959894310315418</v>
+      </c>
+      <c r="Q16">
+        <v>31.21514410494578</v>
+      </c>
+      <c r="R16">
+        <v>280.936296944512</v>
+      </c>
+      <c r="S16">
+        <v>0.145137306706568</v>
+      </c>
+      <c r="T16">
+        <v>0.145137306706568</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>18.32861766666667</v>
+      </c>
+      <c r="H17">
+        <v>54.985853</v>
+      </c>
+      <c r="I17">
+        <v>0.5758889947482273</v>
+      </c>
+      <c r="J17">
+        <v>0.5758889947482273</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>0.01848533333333334</v>
+      </c>
+      <c r="N17">
+        <v>0.05545600000000001</v>
+      </c>
+      <c r="O17">
+        <v>0.002735469863414935</v>
+      </c>
+      <c r="P17">
+        <v>0.002735469863414935</v>
+      </c>
+      <c r="Q17">
+        <v>0.3388106071075556</v>
+      </c>
+      <c r="R17">
+        <v>3.049295463968</v>
+      </c>
+      <c r="S17">
+        <v>0.001575326989806098</v>
+      </c>
+      <c r="T17">
+        <v>0.001575326989806098</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>18.32861766666667</v>
+      </c>
+      <c r="H18">
+        <v>54.985853</v>
+      </c>
+      <c r="I18">
+        <v>0.5758889947482273</v>
+      </c>
+      <c r="J18">
+        <v>0.5758889947482273</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M18">
+        <v>0.008616666666666667</v>
+      </c>
+      <c r="N18">
+        <v>0.02585</v>
+      </c>
+      <c r="O18">
+        <v>0.001275099105043207</v>
+      </c>
+      <c r="P18">
+        <v>0.001275099105043207</v>
+      </c>
+      <c r="Q18">
+        <v>0.1579315888944444</v>
+      </c>
+      <c r="R18">
+        <v>1.42138430005</v>
+      </c>
+      <c r="S18">
+        <v>0.0007343155418076965</v>
+      </c>
+      <c r="T18">
+        <v>0.0007343155418076966</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>18.32861766666667</v>
+      </c>
+      <c r="H19">
+        <v>54.985853</v>
+      </c>
+      <c r="I19">
+        <v>0.5758889947482273</v>
+      </c>
+      <c r="J19">
+        <v>0.5758889947482273</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>6.730542666666667</v>
+      </c>
+      <c r="N19">
+        <v>20.191628</v>
+      </c>
+      <c r="O19">
+        <v>0.9959894310315418</v>
+      </c>
+      <c r="P19">
+        <v>0.9959894310315418</v>
+      </c>
+      <c r="Q19">
+        <v>123.3615432265205</v>
+      </c>
+      <c r="R19">
+        <v>1110.253889038684</v>
+      </c>
+      <c r="S19">
+        <v>0.5735793522166135</v>
+      </c>
+      <c r="T19">
+        <v>0.5735793522166135</v>
       </c>
     </row>
   </sheetData>
